--- a/crm接口文档/客户来访管理/修改客户来访记录.xlsx
+++ b/crm接口文档/客户来访管理/修改客户来访记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14685" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,13 +119,13 @@
     <t>客户来访内容</t>
   </si>
   <si>
-    <t>cusEvaluationId</t>
+    <t>cusEvaluation</t>
   </si>
   <si>
     <t>Integer</t>
   </si>
   <si>
-    <t>客户评价id</t>
+    <t>客户评价</t>
   </si>
   <si>
     <t>cusVisitDetail</t>
@@ -178,10 +178,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -243,16 +243,130 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,126 +379,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -419,187 +419,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,30 +665,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -730,6 +706,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -752,13 +748,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,10 +770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,19 +782,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,112 +803,112 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1351,7 +1351,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/crm接口文档/客户来访管理/修改客户来访记录.xlsx
+++ b/crm接口文档/客户来访管理/修改客户来访记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>URL</t>
   </si>
@@ -113,6 +113,21 @@
     <t>客户 来访/接待 地址</t>
   </si>
   <si>
+    <t>cusVisitStartTime</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>客户来访开始时间</t>
+  </si>
+  <si>
+    <t>cusVisitEndTime</t>
+  </si>
+  <si>
+    <t>客户来访结束时间</t>
+  </si>
+  <si>
     <t>cusVisitContent</t>
   </si>
   <si>
@@ -178,10 +193,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -249,15 +264,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +305,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,14 +326,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,6 +347,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -310,79 +388,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -419,30 +434,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -455,37 +536,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,13 +572,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,13 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,67 +614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,6 +676,30 @@
       </top>
       <bottom style="medium">
         <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,30 +763,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -770,10 +785,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,133 +797,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1348,10 +1363,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1532,10 +1547,10 @@
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="E9" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="22"/>
@@ -1549,12 +1564,12 @@
         <v>17</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
       <c r="E10" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>30</v>
@@ -1588,118 +1603,162 @@
       </c>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" ht="27.75" customHeight="1" spans="1:10">
-      <c r="A12" s="8" t="s">
+    <row r="12" ht="15" customHeight="1" spans="1:10">
+      <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:10">
+      <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" ht="27.75" customHeight="1" spans="1:10">
+      <c r="A14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8" t="s">
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J14" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" ht="27" customHeight="1" spans="1:10">
-      <c r="A13" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="1:10">
-      <c r="A14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="24" t="s">
+    <row r="15" ht="27" customHeight="1" spans="1:10">
+      <c r="A15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="23" t="s">
+      <c r="B15" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="1:10">
-      <c r="A15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>41</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>42</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
-      <c r="I15" s="23" t="s">
-        <v>40</v>
+      <c r="I15" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" ht="19" customHeight="1" spans="1:10">
+    <row r="16" ht="15" customHeight="1" spans="1:10">
       <c r="A16" s="23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
       <c r="J16" s="23"/>
     </row>
+    <row r="17" ht="15" customHeight="1" spans="1:10">
+      <c r="A17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" ht="19" customHeight="1" spans="1:10">
+      <c r="A18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="34">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:E3"/>
@@ -1730,10 +1789,14 @@
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F18:H18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.21mhealth.com/" tooltip="https://www.21mhealth.com/"/>
-    <hyperlink ref="F14" r:id="rId2" display="响应错误码"/>
+    <hyperlink ref="F16" r:id="rId2" display="响应错误码"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/crm接口文档/客户来访管理/修改客户来访记录.xlsx
+++ b/crm接口文档/客户来访管理/修改客户来访记录.xlsx
@@ -193,10 +193,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -272,6 +272,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -281,7 +355,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,112 +400,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -446,175 +446,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,17 +680,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,8 +698,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,17 +728,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,15 +744,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,6 +762,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -785,10 +785,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,133 +797,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/crm接口文档/客户来访管理/修改客户来访记录.xlsx
+++ b/crm接口文档/客户来访管理/修改客户来访记录.xlsx
@@ -121,13 +121,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>客户来访开始时间</t>
-  </si>
-  <si>
     <t>cusVisitEndTime</t>
-  </si>
-  <si>
-    <t>客户来访结束时间</t>
   </si>
   <si>
     <t>cusVisitContent</t>
@@ -183,6 +177,14 @@
   </si>
   <si>
     <t>客户评价（枚举项，enumType=CUS_EVALUATION)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户来访开始时间（精确到分钟）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户来访结束时间（精确到分钟）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -372,73 +374,73 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -748,7 +750,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:H7"/>
+      <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -762,91 +764,91 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="10">
         <v>8080</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
@@ -858,19 +860,19 @@
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="6" t="s">
         <v>14</v>
       </c>
@@ -880,19 +882,19 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="6" t="s">
         <v>14</v>
       </c>
@@ -902,19 +904,19 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="6" t="s">
         <v>14</v>
       </c>
@@ -924,19 +926,19 @@
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="F9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="6" t="s">
         <v>14</v>
       </c>
@@ -946,19 +948,19 @@
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="F10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="6" t="s">
         <v>14</v>
       </c>
@@ -968,19 +970,19 @@
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="F11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="6" t="s">
         <v>14</v>
       </c>
@@ -990,19 +992,19 @@
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="6" t="s">
         <v>14</v>
       </c>
@@ -1012,19 +1014,19 @@
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="F13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1032,21 +1034,21 @@
     </row>
     <row r="14" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1056,21 +1058,21 @@
     </row>
     <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="F15" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1078,74 +1080,50 @@
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="F16" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="F17" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="B14:D14"/>
@@ -1154,6 +1132,30 @@
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
